--- a/dataset/Leitos hospitalares Estado.xlsx
+++ b/dataset/Leitos hospitalares Estado.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,20 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\braeued1\Documents\Octavio\projetos\Covid19_data\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0D03DB4-5950-489C-B282-F38BCC2B1095}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1608730A-D4F9-4F96-BCAC-3431B403745C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6945" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6945" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="A104046200_95_188_204" sheetId="1" r:id="rId1"/>
     <sheet name="Leitos" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Leitos!$A$1:$C$29</definedName>
+  </definedNames>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="39">
   <si>
     <t>Região</t>
   </si>
@@ -135,12 +138,15 @@
   </si>
   <si>
     <t>Leitos Hospitalares</t>
+  </si>
+  <si>
+    <t>Leitos UTI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -974,7 +980,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC8"/>
   <sheetViews>
     <sheetView topLeftCell="J1" workbookViewId="0">
@@ -1620,248 +1626,344 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E25" sqref="E24:E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>36</v>
       </c>
       <c r="B1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>4286</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1484</v>
+      </c>
+      <c r="C2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B3">
-        <v>1484</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5891</v>
+      </c>
+      <c r="C3">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
         <v>5700</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>1133</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1098</v>
+      </c>
+      <c r="C5">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>28960</v>
+      </c>
+      <c r="C6">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>18510</v>
+      </c>
+      <c r="C7">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8">
+        <v>6705</v>
+      </c>
+      <c r="C8">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9">
+        <v>7929</v>
+      </c>
+      <c r="C9">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10">
+        <v>17445</v>
+      </c>
+      <c r="C10">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>13778</v>
+      </c>
+      <c r="C11">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>40699</v>
+      </c>
+      <c r="C12">
+        <v>3096</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13">
+        <v>5596</v>
+      </c>
+      <c r="C13">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14">
+        <v>7156</v>
+      </c>
+      <c r="C14">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B15">
         <v>13584</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>1098</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>3072</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>13778</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="C15">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16">
+        <v>8171</v>
+      </c>
+      <c r="C16">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17">
+        <v>20961</v>
+      </c>
+      <c r="C17">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="B18">
         <v>7460</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>18510</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>7272</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>8171</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>20961</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>5891</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>3212</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>28960</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>40699</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B19">
-        <v>7929</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>27502</v>
+      </c>
+      <c r="C19">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
       <c r="B20">
         <v>32736</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>3936</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B21">
-        <v>90603</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7272</v>
+      </c>
+      <c r="C21">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B22">
-        <v>27502</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4286</v>
+      </c>
+      <c r="C22">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="B23">
-        <v>15322</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1133</v>
+      </c>
+      <c r="C23">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
       <c r="B24">
         <v>30123</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B25">
-        <v>5596</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+        <v>15322</v>
+      </c>
+      <c r="C25">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B26">
-        <v>7156</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3212</v>
+      </c>
+      <c r="C26">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B27">
-        <v>17445</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+        <v>90603</v>
+      </c>
+      <c r="C27">
+        <v>8295</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="B28">
-        <v>6705</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3072</v>
+      </c>
+      <c r="C28">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
       <c r="B29">
         <v>426388</v>
       </c>
+      <c r="C29">
+        <f>SUM(C2:C28)</f>
+        <v>29856</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C29" xr:uid="{07831E01-1337-47D9-8055-6E58F869DF9B}">
+    <sortState ref="A2:C29">
+      <sortCondition ref="A1:A29"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/dataset/Leitos hospitalares Estado.xlsx
+++ b/dataset/Leitos hospitalares Estado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\braeued1\Documents\Octavio\projetos\Covid19_data\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1608730A-D4F9-4F96-BCAC-3431B403745C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A200A5D5-E3C6-42B6-A6EC-18E2B9DE39B0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6945" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="40">
   <si>
     <t>Região</t>
   </si>
@@ -141,6 +141,9 @@
   </si>
   <si>
     <t>Leitos UTI</t>
+  </si>
+  <si>
+    <t>Ocupação</t>
   </si>
 </sst>
 </file>
@@ -624,8 +627,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1627,10 +1632,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E24:E25"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1638,7 +1643,7 @@
     <col min="2" max="2" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -1648,8 +1653,11 @@
       <c r="C1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1659,8 +1667,11 @@
       <c r="C2">
         <v>48</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="1">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1670,8 +1681,11 @@
       <c r="C3">
         <v>287</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="1">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1681,8 +1695,11 @@
       <c r="C4">
         <v>264</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="1">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1693,7 +1710,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1703,8 +1720,11 @@
       <c r="C6">
         <v>1478</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="1">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1714,8 +1734,11 @@
       <c r="C7">
         <v>802</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" s="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -1726,7 +1749,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -1736,8 +1759,11 @@
       <c r="C9">
         <v>716</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" s="2">
+        <v>0.62929999999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -1748,7 +1774,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -1758,8 +1784,11 @@
       <c r="C11">
         <v>572</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" s="2">
+        <v>0.92249999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -1769,8 +1798,11 @@
       <c r="C12">
         <v>3096</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" s="1">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -1780,8 +1812,11 @@
       <c r="C13">
         <v>352</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" s="2">
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -1791,8 +1826,11 @@
       <c r="C14">
         <v>581</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" s="2">
+        <v>9.6000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -1802,8 +1840,11 @@
       <c r="C15">
         <v>609</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15" s="2">
+        <v>0.87190000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -1813,8 +1854,11 @@
       <c r="C16">
         <v>454</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" s="1">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -1824,8 +1868,11 @@
       <c r="C17">
         <v>609</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" s="2">
+        <v>0.52200000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -1835,8 +1882,11 @@
       <c r="C18">
         <v>227</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" s="2">
+        <v>0.41799999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -1846,8 +1896,11 @@
       <c r="C19">
         <v>2006</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" s="2">
+        <v>0.29499999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1857,8 +1910,11 @@
       <c r="C20">
         <v>3936</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" s="1">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -1868,8 +1924,11 @@
       <c r="C21">
         <v>431</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" s="1">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -1879,8 +1938,11 @@
       <c r="C22">
         <v>231</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" s="2">
+        <v>0.29599999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -1891,7 +1953,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -1901,8 +1963,11 @@
       <c r="C24">
         <v>1630</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24" s="2">
+        <v>0.71699999999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -1912,8 +1977,11 @@
       <c r="C25">
         <v>837</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25" s="2">
+        <v>0.17030000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>15</v>
       </c>
@@ -1923,8 +1991,11 @@
       <c r="C26">
         <v>241</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26" s="2">
+        <v>0.34799999999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -1934,8 +2005,11 @@
       <c r="C27">
         <v>8295</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27" s="2">
+        <v>0.66900000000000004</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -1945,8 +2019,11 @@
       <c r="C28">
         <v>125</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -1959,11 +2036,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C29" xr:uid="{07831E01-1337-47D9-8055-6E58F869DF9B}">
-    <sortState ref="A2:C29">
-      <sortCondition ref="A1:A29"/>
-    </sortState>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>